--- a/Feature-Analysis/Resize Feature/s_09_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_09_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.60396990739</v>
+        <v>738157.60396990739</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.60467592592</v>
+        <v>738157.60467592592</v>
       </c>
       <c r="C3" s="0">
         <v>61.000001057982445</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.60481481487</v>
+        <v>738157.60481481487</v>
       </c>
       <c r="C4" s="0">
         <v>73.000006377696991</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.60535879631</v>
+        <v>738157.60535879631</v>
       </c>
       <c r="C5" s="0">
         <v>120.00000290572643</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.60549768514</v>
+        <v>738157.60549768514</v>
       </c>
       <c r="C6" s="0">
         <v>131.99999816715717</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.60603009257</v>
+        <v>738157.60603009257</v>
       </c>
       <c r="C7" s="0">
         <v>178.00000011920929</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.60643518518</v>
+        <v>738157.60643518518</v>
       </c>
       <c r="C8" s="0">
         <v>213.00000138580799</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.60670138884</v>
+        <v>738157.60670138884</v>
       </c>
       <c r="C9" s="0">
         <v>235.99999733269215</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.60697916662</v>
+        <v>738157.60697916662</v>
       </c>
       <c r="C10" s="0">
         <v>259.99999791383743</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.60752314818</v>
+        <v>738157.60752314818</v>
       </c>
       <c r="C11" s="0">
         <v>307.00000450015068</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.60778935184</v>
+        <v>738157.60778935184</v>
       </c>
       <c r="C12" s="0">
         <v>330.00000044703484</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.60819444444</v>
+        <v>738157.60819444444</v>
       </c>
       <c r="C13" s="0">
         <v>365.00000171363354</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.60859953705</v>
+        <v>738157.60859953705</v>
       </c>
       <c r="C14" s="0">
         <v>400.00000298023224</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.60886574071</v>
+        <v>738157.60886574071</v>
       </c>
       <c r="C15" s="0">
         <v>422.99999892711639</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.60940972227</v>
+        <v>738157.60940972227</v>
       </c>
       <c r="C16" s="0">
         <v>470.00000551342964</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.60967592592</v>
+        <v>738157.60967592592</v>
       </c>
       <c r="C17" s="0">
         <v>493.0000014603138</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.61016203708</v>
+        <v>738157.61016203708</v>
       </c>
       <c r="C18" s="0">
         <v>535.000004991889</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.61043981486</v>
+        <v>738157.61043981486</v>
       </c>
       <c r="C19" s="0">
         <v>559.00000557303429</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.6109837963</v>
+        <v>738157.6109837963</v>
       </c>
       <c r="C20" s="0">
         <v>606.00000210106373</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.61112268514</v>
+        <v>738157.61112268514</v>
       </c>
       <c r="C21" s="0">
         <v>617.99999736249447</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.61210648145</v>
+        <v>738157.61210648145</v>
       </c>
       <c r="C22" s="0">
         <v>702.9999990016222</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.61210648145</v>
+        <v>738157.61210648145</v>
       </c>
       <c r="C23" s="0">
         <v>702.9999990016222</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.61239583336</v>
+        <v>738157.61239583336</v>
       </c>
       <c r="C24" s="0">
         <v>728.00000421702862</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.61302083335</v>
+        <v>738157.61302083335</v>
       </c>
       <c r="C25" s="0">
         <v>782.00000301003456</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.61302083335</v>
+        <v>738157.61302083335</v>
       </c>
       <c r="C26" s="0">
         <v>782.00000301003456</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.61346064811</v>
+        <v>738157.61346064811</v>
       </c>
       <c r="C27" s="0">
         <v>819.99999806284904</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.61375000002</v>
+        <v>738157.61375000002</v>
       </c>
       <c r="C28" s="0">
         <v>845.00000327825546</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.61416666664</v>
+        <v>738157.61416666664</v>
       </c>
       <c r="C29" s="0">
         <v>880.99999912083149</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.61460648151</v>
+        <v>738157.61460648151</v>
       </c>
       <c r="C30" s="0">
         <v>919.00000423192978</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.61490740743</v>
+        <v>738157.61490740743</v>
       </c>
       <c r="C31" s="0">
         <v>945.00000402331352</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.61547453701</v>
+        <v>738157.61547453701</v>
       </c>
       <c r="C32" s="0">
         <v>993.99999976158142</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.61591435189</v>
+        <v>738157.61591435189</v>
       </c>
       <c r="C33" s="0">
         <v>1032.0000048726797</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.61606481485</v>
+        <v>738157.61606481485</v>
       </c>
       <c r="C34" s="0">
         <v>1045.0000047683716</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.61663194443</v>
+        <v>738157.61663194443</v>
       </c>
       <c r="C35" s="0">
         <v>1094.0000005066395</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.61678240739</v>
+        <v>738157.61678240739</v>
       </c>
       <c r="C36" s="0">
         <v>1107.0000004023314</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.61738425924</v>
+        <v>738157.61738425924</v>
       </c>
       <c r="C37" s="0">
         <v>1158.9999999850988</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.61752314819</v>
+        <v>738157.61752314819</v>
       </c>
       <c r="C38" s="0">
         <v>1171.0000053048134</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.61809027777</v>
+        <v>738157.61809027777</v>
       </c>
       <c r="C39" s="0">
         <v>1220.0000010430813</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.61863425921</v>
+        <v>738157.61863425921</v>
       </c>
       <c r="C40" s="0">
         <v>1266.9999975711107</v>
